--- a/biology/Botanique/Tapiscia_sinensis/Tapiscia_sinensis.xlsx
+++ b/biology/Botanique/Tapiscia_sinensis/Tapiscia_sinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapiscia sinensis est une espèce de la famille des Tapisciaceae.
-C'est un arbre qui pousse dans le biome tempéré[1].
+C'est un arbre qui pousse dans le biome tempéré.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans le pays suivant[2] : Chine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans le pays suivant : Chine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 janvier 2024)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 janvier 2024) :
 Tapiscia sinensis var. macrocarpa T.Z.Hsu</t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Tapiscia sinensis Oliv.[3].
-Tapiscia sinensis a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Tapiscia sinensis Oliv..
+Tapiscia sinensis a pour synonymes :
 Tapiscia affinis Merr. &amp; Chun
 Tapiscia sinensis var. concolor W.C.Cheng
 Tapiscia sinensis var. sinensis</t>
